--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gosia\Documents\GitHub\eras-tour-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F063DA70-3E9D-4D86-83F2-F78F8E89933F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D520C0BF-6446-43D3-A42C-5273BAC98C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{9404EA04-927B-45B2-8EBA-1BAC4D529E11}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4372" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4399" uniqueCount="571">
   <si>
     <t>Album</t>
   </si>
@@ -2050,7 +2050,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2098,7 +2098,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -15441,8 +15440,8 @@
   <sheetPr codeName="Arkusz3"/>
   <dimension ref="A1:AL67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S46" zoomScale="67" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="V67" sqref="V67"/>
+    <sheetView tabSelected="1" topLeftCell="R42" zoomScale="67" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="Z72" sqref="Z72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22653,87 +22652,87 @@
         <v>267</v>
       </c>
       <c r="I65" t="s">
-        <v>251</v>
+        <v>56</v>
       </c>
       <c r="J65" t="str">
         <f>IF(I65&lt;&gt;0,VLOOKUP(I65,Albums!A:B,2,0)," ")</f>
-        <v>Other</v>
+        <v>Speak Now</v>
       </c>
       <c r="K65" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="L65" t="str">
         <f>IF(K65&lt;&gt;0,VLOOKUP(K65,Albums!A:B,2,0)," ")</f>
-        <v>Speak Now</v>
+        <v>1989</v>
       </c>
       <c r="N65" t="str">
         <f>IF(M65&lt;&gt;0,VLOOKUP(M65,Albums!A:B,2,0)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="O65" t="s">
-        <v>220</v>
+        <v>52</v>
       </c>
       <c r="P65" t="str">
         <f>IF(O65&lt;&gt;0,VLOOKUP(O65,Albums!A:B,2,0)," ")</f>
-        <v>The Tortured Poets Department</v>
+        <v>Speak Now</v>
       </c>
       <c r="Q65" t="s">
-        <v>198</v>
+        <v>30</v>
       </c>
       <c r="R65" t="str">
         <f>IF(Q65&lt;&gt;0,VLOOKUP(Q65,Albums!A:B,2,0)," ")</f>
-        <v>Midnights</v>
+        <v>Fearless</v>
       </c>
       <c r="T65" t="str">
         <f>IF(S65&lt;&gt;0,VLOOKUP(S65,Albums!A:B,2,0)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="V65" s="43" t="s">
+      <c r="V65" t="s">
         <v>528</v>
       </c>
-      <c r="W65" s="43" t="s">
+      <c r="W65" t="s">
         <v>504</v>
       </c>
-      <c r="X65" s="43" t="s">
+      <c r="X65" t="s">
         <v>502</v>
       </c>
-      <c r="Y65" s="43" t="s">
+      <c r="Y65" t="s">
         <v>512</v>
       </c>
-      <c r="Z65" s="43" t="s">
+      <c r="Z65" t="s">
         <v>535</v>
       </c>
-      <c r="AA65" s="43" t="s">
+      <c r="AA65" t="s">
         <v>514</v>
       </c>
-      <c r="AB65" s="43" t="s">
+      <c r="AB65" t="s">
         <v>560</v>
       </c>
-      <c r="AC65" s="43" t="s">
+      <c r="AC65" t="s">
         <v>515</v>
       </c>
-      <c r="AD65" s="43" t="s">
+      <c r="AD65" t="s">
         <v>516</v>
       </c>
-      <c r="AE65" s="43" t="s">
+      <c r="AE65" t="s">
         <v>536</v>
       </c>
-      <c r="AF65" s="43" t="s">
+      <c r="AF65" t="s">
         <v>517</v>
       </c>
-      <c r="AG65" s="43" t="s">
+      <c r="AG65" t="s">
         <v>518</v>
       </c>
-      <c r="AH65" s="43" t="s">
+      <c r="AH65" t="s">
         <v>518</v>
       </c>
-      <c r="AI65" s="43" t="s">
+      <c r="AI65" t="s">
         <v>565</v>
       </c>
-      <c r="AJ65" s="43" t="s">
+      <c r="AJ65" t="s">
         <v>534</v>
       </c>
-      <c r="AK65" s="43" t="s">
+      <c r="AK65" t="s">
         <v>508</v>
       </c>
       <c r="AL65" s="10" t="s">
@@ -22762,76 +22761,91 @@
       <c r="G66" t="s">
         <v>267</v>
       </c>
+      <c r="I66" t="s">
+        <v>251</v>
+      </c>
       <c r="J66" t="str">
         <f>IF(I66&lt;&gt;0,VLOOKUP(I66,Albums!A:B,2,0)," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>Other</v>
+      </c>
+      <c r="K66" t="s">
+        <v>57</v>
       </c>
       <c r="L66" t="str">
         <f>IF(K66&lt;&gt;0,VLOOKUP(K66,Albums!A:B,2,0)," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>Speak Now</v>
       </c>
       <c r="N66" t="str">
         <f>IF(M66&lt;&gt;0,VLOOKUP(M66,Albums!A:B,2,0)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
+      <c r="O66" t="s">
+        <v>220</v>
+      </c>
       <c r="P66" t="str">
         <f>IF(O66&lt;&gt;0,VLOOKUP(O66,Albums!A:B,2,0)," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>The Tortured Poets Department</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>198</v>
       </c>
       <c r="R66" t="str">
         <f>IF(Q66&lt;&gt;0,VLOOKUP(Q66,Albums!A:B,2,0)," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>Midnights</v>
       </c>
       <c r="T66" t="str">
         <f>IF(S66&lt;&gt;0,VLOOKUP(S66,Albums!A:B,2,0)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="V66" s="43" t="s">
+      <c r="U66" t="s">
+        <v>267</v>
+      </c>
+      <c r="V66" t="s">
         <v>528</v>
       </c>
-      <c r="W66" s="43" t="s">
+      <c r="W66" t="s">
         <v>504</v>
       </c>
-      <c r="X66" s="43" t="s">
+      <c r="X66" t="s">
         <v>502</v>
       </c>
-      <c r="Y66" s="43" t="s">
+      <c r="Y66" t="s">
         <v>512</v>
       </c>
-      <c r="Z66" s="43" t="s">
+      <c r="Z66" t="s">
         <v>535</v>
       </c>
-      <c r="AA66" s="43" t="s">
+      <c r="AA66" t="s">
         <v>514</v>
       </c>
-      <c r="AB66" s="43" t="s">
+      <c r="AB66" t="s">
         <v>560</v>
       </c>
-      <c r="AC66" s="43" t="s">
+      <c r="AC66" t="s">
         <v>515</v>
       </c>
-      <c r="AD66" s="43" t="s">
+      <c r="AD66" t="s">
         <v>516</v>
       </c>
-      <c r="AE66" s="43" t="s">
+      <c r="AE66" t="s">
         <v>536</v>
       </c>
-      <c r="AF66" s="43" t="s">
+      <c r="AF66" t="s">
         <v>517</v>
       </c>
-      <c r="AG66" s="43" t="s">
+      <c r="AG66" t="s">
         <v>518</v>
       </c>
-      <c r="AH66" s="43" t="s">
+      <c r="AH66" t="s">
         <v>518</v>
       </c>
-      <c r="AI66" s="43" t="s">
+      <c r="AI66" t="s">
         <v>565</v>
       </c>
-      <c r="AJ66" s="43" t="s">
+      <c r="AJ66" t="s">
         <v>534</v>
       </c>
-      <c r="AK66" s="43" t="s">
+      <c r="AK66" t="s">
         <v>508</v>
       </c>
       <c r="AL66" s="10" t="s">
@@ -22861,48 +22875,97 @@
         <v>267</v>
       </c>
       <c r="H67" s="12"/>
+      <c r="I67" t="s">
+        <v>462</v>
+      </c>
       <c r="J67" t="str">
         <f>IF(I67&lt;&gt;0,VLOOKUP(I67,Albums!A:B,2,0)," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>Taylor Swift</v>
+      </c>
+      <c r="K67" t="s">
+        <v>118</v>
       </c>
       <c r="L67" t="str">
         <f>IF(K67&lt;&gt;0,VLOOKUP(K67,Albums!A:B,2,0)," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>1989</v>
       </c>
       <c r="N67" t="str">
         <f>IF(M67&lt;&gt;0,VLOOKUP(M67,Albums!A:B,2,0)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
+      <c r="O67" t="s">
+        <v>58</v>
+      </c>
       <c r="P67" t="str">
         <f>IF(O67&lt;&gt;0,VLOOKUP(O67,Albums!A:B,2,0)," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>Speak Now</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>137</v>
       </c>
       <c r="R67" t="str">
         <f>IF(Q67&lt;&gt;0,VLOOKUP(Q67,Albums!A:B,2,0)," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>reputation</v>
+      </c>
+      <c r="S67" t="s">
+        <v>250</v>
       </c>
       <c r="T67" t="str">
         <f>IF(S67&lt;&gt;0,VLOOKUP(S67,Albums!A:B,2,0)," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>The Tortured Poets Department</v>
       </c>
       <c r="U67" s="12"/>
-      <c r="V67" s="12"/>
-      <c r="W67" s="12"/>
-      <c r="X67" s="12"/>
-      <c r="Y67" s="12"/>
-      <c r="Z67" s="12"/>
-      <c r="AA67" s="12"/>
-      <c r="AB67" s="12"/>
-      <c r="AC67" s="12"/>
-      <c r="AD67" s="12"/>
-      <c r="AE67" s="12"/>
-      <c r="AF67" s="12"/>
-      <c r="AG67" s="12"/>
-      <c r="AH67" s="12"/>
-      <c r="AI67" s="12"/>
-      <c r="AJ67" s="12"/>
-      <c r="AK67" s="12"/>
-      <c r="AL67" s="14"/>
+      <c r="V67" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="W67" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="X67" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="Y67" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="Z67" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="AA67" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="AB67" s="12" t="s">
+        <v>560</v>
+      </c>
+      <c r="AC67" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="AD67" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="AE67" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="AF67" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="AG67" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="AH67" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="AI67" s="12" t="s">
+        <v>565</v>
+      </c>
+      <c r="AJ67" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="AK67" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="AL67" s="14" t="s">
+        <v>509</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="V1:V1048576">
@@ -23109,7 +23172,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J1:J1048576 L1:L1048576 N1:N1048576 P1:P1048576 R1:R1048576 T1:T1048576 K45 M45 K48:K65</xm:sqref>
+          <xm:sqref>J1:J1048576 L1:L1048576 N1:N1048576 P1:P1048576 R1:R1048576 T1:T1048576 K45 M45 K48:K67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="93" operator="containsText" id="{F78A9C55-CF46-4E0F-97A5-E479D5F4E5EA}">
